--- a/app/static/upload/excel_hide/excel_TM/new_excel_TM.xlsx
+++ b/app/static/upload/excel_hide/excel_TM/new_excel_TM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U89"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,12 +543,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>國立臺南高工</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1251-142033</t>
+          <t>6771-102004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -557,69 +557,69 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>89.25</v>
+        <v>77.75</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>77.5</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O2" t="n">
-        <v>461.25</v>
+        <v>395.25</v>
       </c>
       <c r="P2" t="n">
-        <v>639.25</v>
+        <v>542.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="R2" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="S2" t="n">
         <v>22</v>
       </c>
       <c r="T2" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="U2" t="n">
-        <v>15.25</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1251-101011</t>
+          <t>3531-D01021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -628,69 +628,69 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>89.75</v>
+        <v>87</v>
       </c>
       <c r="G3" t="n">
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>92.5</v>
+        <v>82.5</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N3" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O3" t="n">
-        <v>446.25</v>
+        <v>383.5</v>
       </c>
       <c r="P3" t="n">
-        <v>626.75</v>
+        <v>542</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R3" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="S3" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="T3" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U3" t="n">
-        <v>13.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>臺北市立松山工農</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1251-141008</t>
+          <t>1281-052003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -699,58 +699,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>94.5</v>
+        <v>71.5</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>87.5</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M4" t="n">
         <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O4" t="n">
-        <v>438</v>
+        <v>375.5</v>
       </c>
       <c r="P4" t="n">
-        <v>613.5</v>
+        <v>541.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="R4" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="S4" t="n">
         <v>18</v>
       </c>
       <c r="T4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="U4" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5">
@@ -761,7 +761,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1251-102037</t>
+          <t>1251-102033</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -770,69 +770,69 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G5" t="n">
+        <v>13</v>
+      </c>
+      <c r="H5" t="n">
+        <v>48</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>80</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13</v>
+      </c>
+      <c r="L5" t="n">
+        <v>90</v>
+      </c>
+      <c r="M5" t="n">
         <v>15</v>
       </c>
-      <c r="H5" t="n">
-        <v>96</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>90</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15</v>
-      </c>
-      <c r="L5" t="n">
-        <v>84</v>
-      </c>
-      <c r="M5" t="n">
-        <v>14</v>
-      </c>
       <c r="N5" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O5" t="n">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="P5" t="n">
-        <v>613</v>
+        <v>541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="R5" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T5" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>高雄市立高雄高工</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1251-102015</t>
+          <t>7251-ME4831</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -841,69 +841,69 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>98</v>
+        <v>88.5</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>87.5</v>
+        <v>82.5</v>
       </c>
       <c r="K6" t="n">
         <v>14</v>
       </c>
       <c r="L6" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O6" t="n">
-        <v>445.5</v>
+        <v>387</v>
       </c>
       <c r="P6" t="n">
-        <v>611</v>
+        <v>539.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="R6" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="S6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T6" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="U6" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3531-D01005</t>
+          <t>1251-142005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -918,49 +918,49 @@
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O7" t="n">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="P7" t="n">
-        <v>609</v>
+        <v>539</v>
       </c>
       <c r="Q7" t="n">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="R7" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="S7" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="T7" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="U7" t="n">
         <v>13</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1251-101021</t>
+          <t>1251-152011</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -983,55 +983,55 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>63</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
         <v>85</v>
       </c>
-      <c r="E8" t="n">
-        <v>13</v>
-      </c>
-      <c r="F8" t="n">
-        <v>97</v>
-      </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
+        <v>88</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>76</v>
+      </c>
+      <c r="M8" t="n">
+        <v>13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>62</v>
+      </c>
+      <c r="O8" t="n">
+        <v>388</v>
+      </c>
+      <c r="P8" t="n">
+        <v>539</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>105</v>
+      </c>
+      <c r="R8" t="n">
+        <v>48</v>
+      </c>
+      <c r="S8" t="n">
+        <v>16</v>
+      </c>
+      <c r="T8" t="n">
         <v>72</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11</v>
-      </c>
-      <c r="J8" t="n">
-        <v>90</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15</v>
-      </c>
-      <c r="L8" t="n">
-        <v>86</v>
-      </c>
-      <c r="M8" t="n">
-        <v>15</v>
-      </c>
-      <c r="N8" t="n">
-        <v>69</v>
-      </c>
-      <c r="O8" t="n">
-        <v>429</v>
-      </c>
-      <c r="P8" t="n">
-        <v>605</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>7</v>
-      </c>
-      <c r="R8" t="n">
-        <v>64</v>
-      </c>
-      <c r="S8" t="n">
-        <v>20</v>
-      </c>
-      <c r="T8" t="n">
-        <v>84</v>
       </c>
       <c r="U8" t="n">
         <v>13</v>
@@ -1040,12 +1040,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>國立彰化師大附工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5121-307014</t>
+          <t>1251-142008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1054,58 +1054,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>98</v>
+        <v>91.75</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="K9" t="n">
         <v>14</v>
       </c>
       <c r="L9" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N9" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O9" t="n">
-        <v>433</v>
+        <v>390.25</v>
       </c>
       <c r="P9" t="n">
-        <v>604</v>
+        <v>538.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="R9" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="S9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T9" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="U9" t="n">
-        <v>16</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="10">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1251-101003</t>
+          <t>1251-102034</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1125,69 +1125,69 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>91</v>
+        <v>71.5</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>87.5</v>
+        <v>77.5</v>
       </c>
       <c r="K10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M10" t="n">
         <v>14</v>
       </c>
       <c r="N10" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O10" t="n">
-        <v>430.5</v>
+        <v>381</v>
       </c>
       <c r="P10" t="n">
-        <v>600</v>
+        <v>538.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="R10" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="S10" t="n">
         <v>16</v>
       </c>
       <c r="T10" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="U10" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>臺北市立松山工農</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3531-B01019</t>
+          <t>1281-051017</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1196,69 +1196,69 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>85</v>
+        <v>86.25</v>
       </c>
       <c r="G11" t="n">
         <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N11" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O11" t="n">
-        <v>427</v>
+        <v>382.25</v>
       </c>
       <c r="P11" t="n">
-        <v>599</v>
+        <v>538.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="R11" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T11" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="U11" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>國立臺南高工</t>
+          <t>臺北市立松山工農</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6771-103003</t>
+          <t>1281-051038</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1267,16 +1267,16 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>57</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
         <v>85</v>
       </c>
-      <c r="E12" t="n">
-        <v>13</v>
-      </c>
-      <c r="F12" t="n">
-        <v>95</v>
-      </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
         <v>80</v>
@@ -1285,10 +1285,10 @@
         <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>90</v>
+        <v>77.5</v>
       </c>
       <c r="K12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
         <v>80</v>
@@ -1297,39 +1297,39 @@
         <v>14</v>
       </c>
       <c r="N12" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O12" t="n">
-        <v>429</v>
+        <v>380.5</v>
       </c>
       <c r="P12" t="n">
-        <v>599</v>
+        <v>538</v>
       </c>
       <c r="Q12" t="n">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="R12" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="S12" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="T12" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>國立臺南大學附中</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4351-101004</t>
+          <t>6781-301017</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1338,19 +1338,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>85.5</v>
+        <v>36.5</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I13" t="n">
         <v>14</v>
@@ -1362,45 +1362,45 @@
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="O13" t="n">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="P13" t="n">
-        <v>598.5</v>
+        <v>537.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="R13" t="n">
         <v>52</v>
       </c>
       <c r="S13" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T13" t="n">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="U13" t="n">
-        <v>11.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>國立彰化師大附工</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1251-102019</t>
+          <t>5121-301025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1415,63 +1415,63 @@
         <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>89</v>
+        <v>82.5</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>92.5</v>
+        <v>87.5</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N14" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O14" t="n">
-        <v>423.5</v>
+        <v>372</v>
       </c>
       <c r="P14" t="n">
-        <v>598</v>
+        <v>537.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="R14" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="S14" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="T14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="U14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4351-102018</t>
+          <t>1251-152002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1480,69 +1480,69 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>95</v>
+        <v>72.5</v>
       </c>
       <c r="K15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="M15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O15" t="n">
-        <v>420</v>
+        <v>396.5</v>
       </c>
       <c r="P15" t="n">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="Q15" t="n">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="R15" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T15" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>國立彰化師大附工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5121-305012</t>
+          <t>3531-B01006</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1554,66 +1554,66 @@
         <v>73</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>79.5</v>
+        <v>91</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>92.5</v>
+        <v>77.5</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N16" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O16" t="n">
-        <v>422</v>
+        <v>390.5</v>
       </c>
       <c r="P16" t="n">
-        <v>596.5</v>
+        <v>536</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="R16" t="n">
         <v>58</v>
       </c>
       <c r="S16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T16" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="U16" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>市立臺中高工</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3531-B02026</t>
+          <t>4351-101029</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1622,69 +1622,69 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>94.5</v>
+        <v>91</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>82.5</v>
+        <v>72.5</v>
       </c>
       <c r="K17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L17" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N17" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O17" t="n">
-        <v>429</v>
+        <v>385.5</v>
       </c>
       <c r="P17" t="n">
-        <v>595.5</v>
+        <v>536</v>
       </c>
       <c r="Q17" t="n">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="R17" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
       </c>
       <c r="T17" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U17" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4351-101018</t>
+          <t>1251-102013</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1693,69 +1693,69 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>83</v>
+        <v>64.5</v>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>95</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M18" t="n">
         <v>14</v>
       </c>
       <c r="N18" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O18" t="n">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="P18" t="n">
-        <v>595</v>
+        <v>535.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="R18" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T18" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4351-122008</t>
+          <t>3531-D01002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1764,69 +1764,69 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>91</v>
+        <v>98.5</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I19" t="n">
         <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>90</v>
+        <v>67.5</v>
       </c>
       <c r="K19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="M19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N19" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O19" t="n">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="P19" t="n">
-        <v>595</v>
+        <v>535.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="R19" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S19" t="n">
         <v>16</v>
       </c>
       <c r="T19" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="U19" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>國立彰化師大附工</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3531-B02008</t>
+          <t>5121-307003</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" t="n">
         <v>12</v>
@@ -1847,40 +1847,40 @@
         <v>13</v>
       </c>
       <c r="H20" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>87.5</v>
+        <v>82.5</v>
       </c>
       <c r="K20" t="n">
         <v>14</v>
       </c>
       <c r="L20" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N20" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O20" t="n">
-        <v>422.5</v>
+        <v>375.5</v>
       </c>
       <c r="P20" t="n">
-        <v>594</v>
+        <v>534</v>
       </c>
       <c r="Q20" t="n">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="R20" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T20" t="n">
         <v>72</v>
@@ -1892,12 +1892,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>國立彰化師大附工</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3531-D01019</t>
+          <t>5121-306011</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1906,55 +1906,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G21" t="n">
         <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>90</v>
+        <v>82.5</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N21" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O21" t="n">
-        <v>423</v>
+        <v>383.5</v>
       </c>
       <c r="P21" t="n">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="Q21" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="R21" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S21" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T21" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U21" t="n">
         <v>13</v>
@@ -1963,12 +1963,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>高雄市立高雄高工</t>
+          <t>臺北市立松山工農</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7251-ME1829</t>
+          <t>1281-052016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
         <v>91</v>
@@ -1989,37 +1989,37 @@
         <v>14</v>
       </c>
       <c r="H22" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>95</v>
+        <v>72.5</v>
       </c>
       <c r="K22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L22" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N22" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O22" t="n">
-        <v>414</v>
+        <v>389.5</v>
       </c>
       <c r="P22" t="n">
-        <v>589</v>
+        <v>534</v>
       </c>
       <c r="Q22" t="n">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="R22" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="S22" t="n">
         <v>16</v>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1251-101015</t>
+          <t>1251-101013</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2048,49 +2048,49 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>93</v>
+        <v>91.5</v>
       </c>
       <c r="G23" t="n">
         <v>14</v>
       </c>
       <c r="H23" t="n">
+        <v>56</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9</v>
+      </c>
+      <c r="J23" t="n">
         <v>80</v>
       </c>
-      <c r="I23" t="n">
-        <v>13</v>
-      </c>
-      <c r="J23" t="n">
-        <v>85</v>
-      </c>
       <c r="K23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M23" t="n">
         <v>14</v>
       </c>
       <c r="N23" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O23" t="n">
-        <v>422</v>
+        <v>373.5</v>
       </c>
       <c r="P23" t="n">
-        <v>589</v>
+        <v>533.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="R23" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="S23" t="n">
         <v>16</v>
@@ -2099,18 +2099,18 @@
         <v>80</v>
       </c>
       <c r="U23" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>國立臺南高工</t>
+          <t>國立彰化師大附工</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6771-101017</t>
+          <t>5121-305005</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" t="n">
-        <v>98.5</v>
+        <v>86.25</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" t="n">
         <v>72</v>
@@ -2137,51 +2137,51 @@
         <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>90</v>
+        <v>77.5</v>
       </c>
       <c r="K24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L24" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M24" t="n">
         <v>13</v>
       </c>
       <c r="N24" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O24" t="n">
-        <v>420.5</v>
+        <v>381.75</v>
       </c>
       <c r="P24" t="n">
-        <v>588.5</v>
+        <v>533.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="R24" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="S24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T24" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="U24" t="n">
-        <v>14.5</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>國立北科附工</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3531-D01017</t>
+          <t>3081-122034</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2190,55 +2190,55 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" t="n">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
-        <v>77.5</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
         <v>13</v>
       </c>
       <c r="L25" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N25" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O25" t="n">
-        <v>420.5</v>
+        <v>375</v>
       </c>
       <c r="P25" t="n">
-        <v>586</v>
+        <v>533</v>
       </c>
       <c r="Q25" t="n">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="R25" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="U25" t="n">
         <v>13</v>
@@ -2247,12 +2247,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4351-101017</t>
+          <t>1251-101022</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2261,69 +2261,69 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G26" t="n">
         <v>13</v>
       </c>
       <c r="H26" t="n">
+        <v>72</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11</v>
+      </c>
+      <c r="J26" t="n">
         <v>80</v>
       </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>87.5</v>
-      </c>
       <c r="K26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="M26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N26" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O26" t="n">
-        <v>413.5</v>
+        <v>379</v>
       </c>
       <c r="P26" t="n">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="Q26" t="n">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="R26" t="n">
         <v>56</v>
       </c>
       <c r="S26" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T26" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>國立臺南高工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6771-193021</t>
+          <t>3531-C01018</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H27" t="n">
         <v>80</v>
@@ -2350,51 +2350,51 @@
         <v>13</v>
       </c>
       <c r="J27" t="n">
-        <v>82.5</v>
+        <v>70</v>
       </c>
       <c r="K27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L27" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N27" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O27" t="n">
-        <v>426.5</v>
+        <v>383</v>
       </c>
       <c r="P27" t="n">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="Q27" t="n">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="R27" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="S27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T27" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="U27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4351-102006</t>
+          <t>1251-101007</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2403,13 +2403,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E28" t="n">
         <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>87</v>
+        <v>89.75</v>
       </c>
       <c r="G28" t="n">
         <v>14</v>
@@ -2421,51 +2421,51 @@
         <v>13</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5</v>
+        <v>72.5</v>
       </c>
       <c r="K28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L28" t="n">
+        <v>72</v>
+      </c>
+      <c r="M28" t="n">
+        <v>12</v>
+      </c>
+      <c r="N28" t="n">
+        <v>63</v>
+      </c>
+      <c r="O28" t="n">
+        <v>388.25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>532.75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>125</v>
+      </c>
+      <c r="R28" t="n">
+        <v>54</v>
+      </c>
+      <c r="S28" t="n">
+        <v>20</v>
+      </c>
+      <c r="T28" t="n">
         <v>78</v>
       </c>
-      <c r="M28" t="n">
-        <v>13</v>
-      </c>
-      <c r="N28" t="n">
-        <v>67</v>
-      </c>
-      <c r="O28" t="n">
-        <v>413.5</v>
-      </c>
-      <c r="P28" t="n">
-        <v>584</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>27</v>
-      </c>
-      <c r="R28" t="n">
-        <v>66</v>
-      </c>
-      <c r="S28" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" t="n">
-        <v>74</v>
-      </c>
       <c r="U28" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>國立秀水高工</t>
+          <t>臺北市立松山工農</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5081-132035</t>
+          <t>1281-051030</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2474,16 +2474,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E29" t="n">
         <v>11</v>
       </c>
       <c r="F29" t="n">
-        <v>93</v>
+        <v>77.5</v>
       </c>
       <c r="G29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" t="n">
         <v>88</v>
@@ -2492,28 +2492,28 @@
         <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>92.5</v>
+        <v>72.5</v>
       </c>
       <c r="K29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L29" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M29" t="n">
         <v>13</v>
       </c>
       <c r="N29" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O29" t="n">
-        <v>417.5</v>
+        <v>384</v>
       </c>
       <c r="P29" t="n">
-        <v>584</v>
+        <v>532.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="R29" t="n">
         <v>54</v>
@@ -2522,21 +2522,21 @@
         <v>16</v>
       </c>
       <c r="T29" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="U29" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>市立臺中高工</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3531-J01024</t>
+          <t>4351-122018</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" t="n">
         <v>72</v>
@@ -2563,51 +2563,51 @@
         <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>92.5</v>
+        <v>82.5</v>
       </c>
       <c r="K30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N30" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O30" t="n">
-        <v>410.5</v>
+        <v>377.5</v>
       </c>
       <c r="P30" t="n">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="Q30" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="R30" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="S30" t="n">
         <v>16</v>
       </c>
       <c r="T30" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U30" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>高雄市立高雄高工</t>
+          <t>臺北市立松山工農</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7251-ME4814</t>
+          <t>1281-051008</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2616,69 +2616,69 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>95</v>
+        <v>69.5</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H31" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J31" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M31" t="n">
         <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O31" t="n">
-        <v>410</v>
+        <v>370.5</v>
       </c>
       <c r="P31" t="n">
-        <v>583</v>
+        <v>531.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="R31" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T31" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="U31" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>高雄市立高雄高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7251-ME3826</t>
+          <t>1251-141025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2687,55 +2687,55 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G32" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L32" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N32" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O32" t="n">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="P32" t="n">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="Q32" t="n">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="R32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="S32" t="n">
         <v>16</v>
       </c>
       <c r="T32" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="U32" t="n">
         <v>13</v>
@@ -2744,12 +2744,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>國立苗栗農工</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4351-102031</t>
+          <t>4061-M02001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2758,69 +2758,69 @@
         </is>
       </c>
       <c r="D33" t="n">
+        <v>81</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13</v>
+      </c>
+      <c r="F33" t="n">
         <v>85</v>
       </c>
-      <c r="E33" t="n">
-        <v>13</v>
-      </c>
-      <c r="F33" t="n">
-        <v>80.75</v>
-      </c>
       <c r="G33" t="n">
         <v>13</v>
       </c>
       <c r="H33" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="K33" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L33" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M33" t="n">
         <v>13</v>
       </c>
       <c r="N33" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O33" t="n">
-        <v>414.25</v>
+        <v>380</v>
       </c>
       <c r="P33" t="n">
-        <v>579.75</v>
+        <v>531</v>
       </c>
       <c r="Q33" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="R33" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S33" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T33" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U33" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3531-B01004</t>
+          <t>1251-102020</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2829,69 +2829,69 @@
         </is>
       </c>
       <c r="D34" t="n">
+        <v>49</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>89.75</v>
+      </c>
+      <c r="G34" t="n">
+        <v>14</v>
+      </c>
+      <c r="H34" t="n">
+        <v>84</v>
+      </c>
+      <c r="I34" t="n">
+        <v>13</v>
+      </c>
+      <c r="J34" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>13</v>
+      </c>
+      <c r="L34" t="n">
+        <v>76</v>
+      </c>
+      <c r="M34" t="n">
+        <v>13</v>
+      </c>
+      <c r="N34" t="n">
         <v>61</v>
       </c>
-      <c r="E34" t="n">
-        <v>10</v>
-      </c>
-      <c r="F34" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="G34" t="n">
-        <v>13</v>
-      </c>
-      <c r="H34" t="n">
-        <v>96</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15</v>
-      </c>
-      <c r="J34" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>14</v>
-      </c>
-      <c r="L34" t="n">
-        <v>80</v>
-      </c>
-      <c r="M34" t="n">
-        <v>14</v>
-      </c>
-      <c r="N34" t="n">
-        <v>66</v>
-      </c>
       <c r="O34" t="n">
-        <v>412</v>
+        <v>377.25</v>
       </c>
       <c r="P34" t="n">
-        <v>579.5</v>
+        <v>530.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="R34" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="S34" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T34" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="U34" t="n">
-        <v>14.5</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4351-101033</t>
+          <t>3531-C01022</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2900,69 +2900,69 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>92.5</v>
+        <v>94.5</v>
       </c>
       <c r="G35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
+        <v>72</v>
+      </c>
+      <c r="I35" t="n">
+        <v>11</v>
+      </c>
+      <c r="J35" t="n">
         <v>80</v>
       </c>
-      <c r="I35" t="n">
-        <v>13</v>
-      </c>
-      <c r="J35" t="n">
-        <v>85</v>
-      </c>
       <c r="K35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L35" t="n">
+        <v>70</v>
+      </c>
+      <c r="M35" t="n">
+        <v>12</v>
+      </c>
+      <c r="N35" t="n">
+        <v>61</v>
+      </c>
+      <c r="O35" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="P35" t="n">
+        <v>530.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>132</v>
+      </c>
+      <c r="R35" t="n">
+        <v>48</v>
+      </c>
+      <c r="S35" t="n">
+        <v>16</v>
+      </c>
+      <c r="T35" t="n">
         <v>82</v>
       </c>
-      <c r="M35" t="n">
-        <v>14</v>
-      </c>
-      <c r="N35" t="n">
-        <v>66</v>
-      </c>
-      <c r="O35" t="n">
-        <v>411.5</v>
-      </c>
-      <c r="P35" t="n">
-        <v>578.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>34</v>
-      </c>
-      <c r="R35" t="n">
-        <v>50</v>
-      </c>
-      <c r="S35" t="n">
-        <v>22</v>
-      </c>
-      <c r="T35" t="n">
-        <v>78</v>
-      </c>
       <c r="U35" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3531-C01038</t>
+          <t>1251-102014</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2971,69 +2971,69 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>64.25</v>
+        <v>94.5</v>
       </c>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H36" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J36" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K36" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L36" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N36" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O36" t="n">
-        <v>395.25</v>
+        <v>377.5</v>
       </c>
       <c r="P36" t="n">
-        <v>578.25</v>
+        <v>530.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="R36" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S36" t="n">
         <v>16</v>
       </c>
       <c r="T36" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="U36" t="n">
-        <v>10.25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>高雄市立高雄高工</t>
+          <t>國立臺南高工</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7251-ME1809</t>
+          <t>6771-193027</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3042,69 +3042,69 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>94.5</v>
+        <v>91</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J37" t="n">
-        <v>92.5</v>
+        <v>82.5</v>
       </c>
       <c r="K37" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M37" t="n">
         <v>12</v>
       </c>
       <c r="N37" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O37" t="n">
-        <v>411</v>
+        <v>377.5</v>
       </c>
       <c r="P37" t="n">
-        <v>575.5</v>
+        <v>530</v>
       </c>
       <c r="Q37" t="n">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="R37" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="S37" t="n">
         <v>16</v>
       </c>
       <c r="T37" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U37" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>高雄市立高雄高工</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4351-101014</t>
+          <t>7251-ME3821</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3113,58 +3113,58 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E38" t="n">
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>81</v>
+        <v>90.5</v>
       </c>
       <c r="G38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>90</v>
+        <v>77.5</v>
       </c>
       <c r="K38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M38" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N38" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O38" t="n">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="P38" t="n">
-        <v>575</v>
+        <v>529.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="R38" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S38" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T38" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="U38" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="39">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1251-102027</t>
+          <t>1251-141029</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3184,69 +3184,69 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G39" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H39" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="I39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
+        <v>85</v>
+      </c>
+      <c r="K39" t="n">
+        <v>14</v>
+      </c>
+      <c r="L39" t="n">
+        <v>68</v>
+      </c>
+      <c r="M39" t="n">
+        <v>12</v>
+      </c>
+      <c r="N39" t="n">
+        <v>61</v>
+      </c>
+      <c r="O39" t="n">
+        <v>376</v>
+      </c>
+      <c r="P39" t="n">
+        <v>529</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>136</v>
+      </c>
+      <c r="R39" t="n">
+        <v>52</v>
+      </c>
+      <c r="S39" t="n">
+        <v>16</v>
+      </c>
+      <c r="T39" t="n">
         <v>80</v>
       </c>
-      <c r="K39" t="n">
-        <v>13</v>
-      </c>
-      <c r="L39" t="n">
-        <v>80</v>
-      </c>
-      <c r="M39" t="n">
-        <v>14</v>
-      </c>
-      <c r="N39" t="n">
-        <v>67</v>
-      </c>
-      <c r="O39" t="n">
-        <v>415</v>
-      </c>
-      <c r="P39" t="n">
-        <v>575</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>38</v>
-      </c>
-      <c r="R39" t="n">
-        <v>62</v>
-      </c>
-      <c r="S39" t="n">
-        <v>18</v>
-      </c>
-      <c r="T39" t="n">
-        <v>66</v>
-      </c>
       <c r="U39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>國立興大附農</t>
+          <t>國立彰化師大附工</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4361-E01008</t>
+          <t>5121-302001</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3255,69 +3255,69 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>94.5</v>
+        <v>83</v>
       </c>
       <c r="G40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J40" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K40" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L40" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M40" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N40" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O40" t="n">
-        <v>402.5</v>
+        <v>378</v>
       </c>
       <c r="P40" t="n">
-        <v>574.5</v>
+        <v>529</v>
       </c>
       <c r="Q40" t="n">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="R40" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="S40" t="n">
         <v>16</v>
       </c>
       <c r="T40" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="U40" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>國立西螺農工</t>
+          <t>國立興大附農</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5661-B61028</t>
+          <t>4361-E01009</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3326,28 +3326,28 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>77.75</v>
+        <v>89.75</v>
       </c>
       <c r="G41" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H41" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
-        <v>90</v>
+        <v>82.5</v>
       </c>
       <c r="K41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L41" t="n">
         <v>78</v>
@@ -3356,39 +3356,39 @@
         <v>13</v>
       </c>
       <c r="N41" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O41" t="n">
-        <v>405.75</v>
+        <v>368.25</v>
       </c>
       <c r="P41" t="n">
-        <v>573.75</v>
+        <v>528.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="R41" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="S41" t="n">
         <v>16</v>
       </c>
       <c r="T41" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U41" t="n">
-        <v>11.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1251-101031</t>
+          <t>3531-B01011</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3397,69 +3397,69 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>87.75</v>
+        <v>92.5</v>
       </c>
       <c r="G42" t="n">
         <v>14</v>
       </c>
       <c r="H42" t="n">
+        <v>76</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>70</v>
+      </c>
+      <c r="K42" t="n">
+        <v>12</v>
+      </c>
+      <c r="L42" t="n">
         <v>72</v>
       </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>15</v>
-      </c>
-      <c r="L42" t="n">
-        <v>80</v>
-      </c>
       <c r="M42" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N42" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O42" t="n">
-        <v>400.25</v>
+        <v>386.5</v>
       </c>
       <c r="P42" t="n">
-        <v>572.75</v>
+        <v>528.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="R42" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S42" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T42" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U42" t="n">
-        <v>13.75</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>高雄市立高雄高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7251-ME1822</t>
+          <t>1251-101032</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3468,69 +3468,69 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
       </c>
       <c r="F43" t="n">
-        <v>95</v>
+        <v>64.25</v>
       </c>
       <c r="G43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H43" t="n">
+        <v>72</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11</v>
+      </c>
+      <c r="J43" t="n">
+        <v>80</v>
+      </c>
+      <c r="K43" t="n">
+        <v>13</v>
+      </c>
+      <c r="L43" t="n">
+        <v>76</v>
+      </c>
+      <c r="M43" t="n">
+        <v>13</v>
+      </c>
+      <c r="N43" t="n">
+        <v>60</v>
+      </c>
+      <c r="O43" t="n">
+        <v>372.25</v>
+      </c>
+      <c r="P43" t="n">
+        <v>528.25</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>140</v>
+      </c>
+      <c r="R43" t="n">
         <v>64</v>
-      </c>
-      <c r="I43" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" t="n">
-        <v>85</v>
-      </c>
-      <c r="K43" t="n">
-        <v>14</v>
-      </c>
-      <c r="L43" t="n">
-        <v>80</v>
-      </c>
-      <c r="M43" t="n">
-        <v>14</v>
-      </c>
-      <c r="N43" t="n">
-        <v>66</v>
-      </c>
-      <c r="O43" t="n">
-        <v>406</v>
-      </c>
-      <c r="P43" t="n">
-        <v>571</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>42</v>
-      </c>
-      <c r="R43" t="n">
-        <v>66</v>
       </c>
       <c r="S43" t="n">
         <v>16</v>
       </c>
       <c r="T43" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="U43" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3531-B01015</t>
+          <t>1251-141017</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3539,69 +3539,69 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>86.5</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>13</v>
       </c>
       <c r="H44" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I44" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J44" t="n">
-        <v>80</v>
+        <v>82.5</v>
       </c>
       <c r="K44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L44" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="M44" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N44" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O44" t="n">
-        <v>408.5</v>
+        <v>373.5</v>
       </c>
       <c r="P44" t="n">
-        <v>570.5</v>
+        <v>528</v>
       </c>
       <c r="Q44" t="n">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="R44" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="S44" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T44" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U44" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>國立興大附農</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4361-E01027</t>
+          <t>1251-101006</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3610,28 +3610,28 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>90.25</v>
+        <v>81</v>
       </c>
       <c r="G45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="I45" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
-        <v>85</v>
+        <v>77.5</v>
       </c>
       <c r="K45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L45" t="n">
         <v>72</v>
@@ -3640,39 +3640,39 @@
         <v>12</v>
       </c>
       <c r="N45" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O45" t="n">
-        <v>413.25</v>
+        <v>378.5</v>
       </c>
       <c r="P45" t="n">
-        <v>570.25</v>
+        <v>528</v>
       </c>
       <c r="Q45" t="n">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="R45" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="S45" t="n">
         <v>16</v>
       </c>
       <c r="T45" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="U45" t="n">
-        <v>12.25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>國立嘉義高工</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3531-B01020</t>
+          <t>5941-A05009</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3681,16 +3681,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F46" t="n">
-        <v>90.5</v>
+        <v>81.75</v>
       </c>
       <c r="G46" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46" t="n">
         <v>84</v>
@@ -3699,51 +3699,51 @@
         <v>13</v>
       </c>
       <c r="J46" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L46" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M46" t="n">
         <v>13</v>
       </c>
       <c r="N46" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O46" t="n">
-        <v>414.5</v>
+        <v>381.75</v>
       </c>
       <c r="P46" t="n">
-        <v>568.5</v>
+        <v>527.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="R46" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S46" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="T46" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="U46" t="n">
-        <v>12.5</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3531-B02013</t>
+          <t>1251-142013</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3752,69 +3752,69 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E47" t="n">
         <v>11</v>
       </c>
       <c r="F47" t="n">
-        <v>93</v>
+        <v>59.5</v>
       </c>
       <c r="G47" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47" t="n">
-        <v>82.5</v>
+        <v>80</v>
       </c>
       <c r="K47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L47" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N47" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O47" t="n">
-        <v>409.5</v>
+        <v>367.5</v>
       </c>
       <c r="P47" t="n">
-        <v>568</v>
+        <v>527.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="R47" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S47" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T47" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="U47" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>國立臺南高工</t>
+          <t>國立彰化師大附工</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6771-101039</t>
+          <t>5121-301023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3823,58 +3823,58 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>89.75</v>
+        <v>68.25</v>
       </c>
       <c r="G48" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H48" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I48" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J48" t="n">
-        <v>80</v>
+        <v>82.5</v>
       </c>
       <c r="K48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L48" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N48" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O48" t="n">
-        <v>403.75</v>
+        <v>356.75</v>
       </c>
       <c r="P48" t="n">
-        <v>567.75</v>
+        <v>527.25</v>
       </c>
       <c r="Q48" t="n">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="R48" t="n">
+        <v>46</v>
+      </c>
+      <c r="S48" t="n">
+        <v>16</v>
+      </c>
+      <c r="T48" t="n">
         <v>58</v>
       </c>
-      <c r="S48" t="n">
-        <v>12</v>
-      </c>
-      <c r="T48" t="n">
-        <v>76</v>
-      </c>
       <c r="U48" t="n">
-        <v>13.75</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="49">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1251-101010</t>
+          <t>1251-142030</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3894,16 +3894,16 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E49" t="n">
         <v>11</v>
       </c>
       <c r="F49" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G49" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H49" t="n">
         <v>64</v>
@@ -3912,51 +3912,51 @@
         <v>10</v>
       </c>
       <c r="J49" t="n">
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="K49" t="n">
         <v>14</v>
       </c>
       <c r="L49" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="M49" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N49" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O49" t="n">
-        <v>397.5</v>
+        <v>370</v>
       </c>
       <c r="P49" t="n">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="Q49" t="n">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="R49" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S49" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T49" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="U49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>國立北門農工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6761-306017</t>
+          <t>1251-101020</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3971,40 +3971,40 @@
         <v>12</v>
       </c>
       <c r="F50" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="I50" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
-        <v>82.5</v>
+        <v>80</v>
       </c>
       <c r="K50" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L50" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N50" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O50" t="n">
-        <v>405.5</v>
+        <v>367</v>
       </c>
       <c r="P50" t="n">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="Q50" t="n">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="R50" t="n">
         <v>62</v>
@@ -4013,21 +4013,21 @@
         <v>16</v>
       </c>
       <c r="T50" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U50" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1251-102030</t>
+          <t>3531-B01030</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4036,69 +4036,69 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F51" t="n">
-        <v>98.5</v>
+        <v>75</v>
       </c>
       <c r="G51" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H51" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J51" t="n">
-        <v>77.5</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
         <v>13</v>
       </c>
       <c r="L51" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N51" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O51" t="n">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="P51" t="n">
-        <v>565.5</v>
+        <v>527</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="R51" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S51" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T51" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="U51" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4351-101013</t>
+          <t>1251-141004</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4107,69 +4107,69 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L52" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N52" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O52" t="n">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="P52" t="n">
-        <v>565</v>
+        <v>527</v>
       </c>
       <c r="Q52" t="n">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="R52" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S52" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T52" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="U52" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>國立北科附工</t>
+          <t>國立秀水高工</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3081-111005</t>
+          <t>5081-131035</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4178,58 +4178,58 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H53" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I53" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J53" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K53" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L53" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="M53" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N53" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O53" t="n">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="P53" t="n">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="Q53" t="n">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="R53" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="S53" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T53" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="U53" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3531-B01009</t>
+          <t>3531-J01029</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4249,69 +4249,69 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>81.5</v>
+        <v>46</v>
       </c>
       <c r="G54" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H54" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I54" t="n">
         <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>87.5</v>
+        <v>95</v>
       </c>
       <c r="K54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L54" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N54" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O54" t="n">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="P54" t="n">
-        <v>562.5</v>
+        <v>526</v>
       </c>
       <c r="Q54" t="n">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="R54" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="S54" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T54" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="U54" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>大甲高工</t>
+          <t>國立臺南高工</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4641-M03093</t>
+          <t>6771-103017</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4320,22 +4320,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E55" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I55" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J55" t="n">
         <v>77.5</v>
@@ -4344,31 +4344,31 @@
         <v>13</v>
       </c>
       <c r="L55" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N55" t="n">
+        <v>60</v>
+      </c>
+      <c r="O55" t="n">
+        <v>368.5</v>
+      </c>
+      <c r="P55" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>152</v>
+      </c>
+      <c r="R55" t="n">
+        <v>34</v>
+      </c>
+      <c r="S55" t="n">
+        <v>16</v>
+      </c>
+      <c r="T55" t="n">
         <v>66</v>
-      </c>
-      <c r="O55" t="n">
-        <v>408.5</v>
-      </c>
-      <c r="P55" t="n">
-        <v>562</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>54</v>
-      </c>
-      <c r="R55" t="n">
-        <v>62</v>
-      </c>
-      <c r="S55" t="n">
-        <v>20</v>
-      </c>
-      <c r="T55" t="n">
-        <v>74</v>
       </c>
       <c r="U55" t="n">
         <v>11</v>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1251-102032</t>
+          <t>1251-102036</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4391,69 +4391,69 @@
         </is>
       </c>
       <c r="D56" t="n">
+        <v>77</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12</v>
+      </c>
+      <c r="F56" t="n">
         <v>79</v>
       </c>
-      <c r="E56" t="n">
-        <v>12</v>
-      </c>
-      <c r="F56" t="n">
-        <v>87.75</v>
-      </c>
       <c r="G56" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H56" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J56" t="n">
-        <v>90</v>
+        <v>67.5</v>
       </c>
       <c r="K56" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L56" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M56" t="n">
         <v>13</v>
       </c>
       <c r="N56" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O56" t="n">
-        <v>395.75</v>
+        <v>384.5</v>
       </c>
       <c r="P56" t="n">
-        <v>561.75</v>
+        <v>526</v>
       </c>
       <c r="Q56" t="n">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="R56" t="n">
+        <v>60</v>
+      </c>
+      <c r="S56" t="n">
+        <v>16</v>
+      </c>
+      <c r="T56" t="n">
         <v>66</v>
       </c>
-      <c r="S56" t="n">
-        <v>12</v>
-      </c>
-      <c r="T56" t="n">
-        <v>76</v>
-      </c>
       <c r="U56" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>國立臺南高工</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3531-B02038</t>
+          <t>6771-193012</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E57" t="n">
         <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>98.5</v>
+        <v>77.5</v>
       </c>
       <c r="G57" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H57" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J57" t="n">
         <v>75</v>
@@ -4486,45 +4486,45 @@
         <v>12</v>
       </c>
       <c r="L57" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="M57" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N57" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O57" t="n">
-        <v>401.5</v>
+        <v>380.5</v>
       </c>
       <c r="P57" t="n">
-        <v>560.5</v>
+        <v>525.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="R57" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S57" t="n">
         <v>16</v>
       </c>
       <c r="T57" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="U57" t="n">
-        <v>14.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>國立臺南高工</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1251-142002</t>
+          <t>6771-193031</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4533,69 +4533,69 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" t="n">
-        <v>84.5</v>
+        <v>69</v>
       </c>
       <c r="G58" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H58" t="n">
+        <v>76</v>
+      </c>
+      <c r="I58" t="n">
+        <v>12</v>
+      </c>
+      <c r="J58" t="n">
         <v>80</v>
       </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>87.5</v>
-      </c>
       <c r="K58" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L58" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N58" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O58" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="P58" t="n">
-        <v>559.5</v>
+        <v>525</v>
       </c>
       <c r="Q58" t="n">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="R58" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S58" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="T58" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="U58" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>國立嘉義高工</t>
+          <t>國立臺南高工</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5941-A05018</t>
+          <t>6771-103026</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4604,69 +4604,69 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F59" t="n">
-        <v>95.25</v>
+        <v>75.5</v>
       </c>
       <c r="G59" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H59" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="I59" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J59" t="n">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="K59" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L59" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M59" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N59" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O59" t="n">
-        <v>404.25</v>
+        <v>366</v>
       </c>
       <c r="P59" t="n">
-        <v>559.25</v>
+        <v>524.5</v>
       </c>
       <c r="Q59" t="n">
+        <v>156</v>
+      </c>
+      <c r="R59" t="n">
         <v>58</v>
       </c>
-      <c r="R59" t="n">
-        <v>50</v>
-      </c>
       <c r="S59" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T59" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="U59" t="n">
-        <v>15.25</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>國立臺南高工</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4351-122032</t>
+          <t>6771-194027</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4675,69 +4675,69 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>85.75</v>
+        <v>80.5</v>
       </c>
       <c r="G60" t="n">
         <v>13</v>
       </c>
       <c r="H60" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I60" t="n">
         <v>11</v>
       </c>
       <c r="J60" t="n">
-        <v>72.5</v>
+        <v>75</v>
       </c>
       <c r="K60" t="n">
         <v>12</v>
       </c>
       <c r="L60" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N60" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O60" t="n">
-        <v>398.25</v>
+        <v>375.5</v>
       </c>
       <c r="P60" t="n">
-        <v>558.75</v>
+        <v>524.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="R60" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S60" t="n">
         <v>16</v>
       </c>
       <c r="T60" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="U60" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>國立興大附農</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4361-E01032</t>
+          <t>1251-141036</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4746,69 +4746,69 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>73</v>
+        <v>80.25</v>
       </c>
       <c r="G61" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H61" t="n">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="I61" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J61" t="n">
-        <v>77.5</v>
+        <v>85</v>
       </c>
       <c r="K61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L61" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M61" t="n">
         <v>13</v>
       </c>
       <c r="N61" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O61" t="n">
-        <v>404.5</v>
+        <v>365.25</v>
       </c>
       <c r="P61" t="n">
-        <v>558</v>
+        <v>524.25</v>
       </c>
       <c r="Q61" t="n">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="R61" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
       </c>
       <c r="T61" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="U61" t="n">
-        <v>11</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>國立北科附工</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3531-D01023</t>
+          <t>3081-122014</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4817,69 +4817,69 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E62" t="n">
+        <v>11</v>
+      </c>
+      <c r="F62" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="G62" t="n">
+        <v>14</v>
+      </c>
+      <c r="H62" t="n">
+        <v>60</v>
+      </c>
+      <c r="I62" t="n">
         <v>10</v>
       </c>
-      <c r="F62" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="G62" t="n">
-        <v>9</v>
-      </c>
-      <c r="H62" t="n">
-        <v>92</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
       <c r="J62" t="n">
-        <v>90</v>
+        <v>72.5</v>
       </c>
       <c r="K62" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L62" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M62" t="n">
         <v>14</v>
       </c>
       <c r="N62" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O62" t="n">
-        <v>385.5</v>
+        <v>371.75</v>
       </c>
       <c r="P62" t="n">
-        <v>557.5</v>
+        <v>524.25</v>
       </c>
       <c r="Q62" t="n">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="R62" t="n">
         <v>50</v>
       </c>
       <c r="S62" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T62" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="U62" t="n">
-        <v>7.5</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1251-102026</t>
+          <t>3531-B02011</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4888,69 +4888,69 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G63" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H63" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K63" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L63" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N63" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O63" t="n">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="P63" t="n">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="Q63" t="n">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="R63" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S63" t="n">
         <v>16</v>
       </c>
       <c r="T63" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="U63" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1251-141009</t>
+          <t>3531-D01008</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4959,28 +4959,28 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F64" t="n">
-        <v>91</v>
+        <v>87.75</v>
       </c>
       <c r="G64" t="n">
         <v>14</v>
       </c>
       <c r="H64" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I64" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J64" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K64" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L64" t="n">
         <v>74</v>
@@ -4989,28 +4989,28 @@
         <v>13</v>
       </c>
       <c r="N64" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O64" t="n">
-        <v>398</v>
+        <v>379.75</v>
       </c>
       <c r="P64" t="n">
-        <v>557</v>
+        <v>523.75</v>
       </c>
       <c r="Q64" t="n">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="R64" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="S64" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T64" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U64" t="n">
-        <v>13</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="65">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3531-B01023</t>
+          <t>3531-B02015</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -5030,69 +5030,69 @@
         </is>
       </c>
       <c r="D65" t="n">
+        <v>75</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12</v>
+      </c>
+      <c r="F65" t="n">
+        <v>67</v>
+      </c>
+      <c r="G65" t="n">
+        <v>11</v>
+      </c>
+      <c r="H65" t="n">
+        <v>64</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10</v>
+      </c>
+      <c r="J65" t="n">
         <v>85</v>
       </c>
-      <c r="E65" t="n">
-        <v>13</v>
-      </c>
-      <c r="F65" t="n">
-        <v>76</v>
-      </c>
-      <c r="G65" t="n">
-        <v>12</v>
-      </c>
-      <c r="H65" t="n">
-        <v>72</v>
-      </c>
-      <c r="I65" t="n">
-        <v>11</v>
-      </c>
-      <c r="J65" t="n">
-        <v>82.5</v>
-      </c>
       <c r="K65" t="n">
         <v>14</v>
       </c>
       <c r="L65" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M65" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N65" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O65" t="n">
-        <v>394.5</v>
+        <v>364</v>
       </c>
       <c r="P65" t="n">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="Q65" t="n">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="R65" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="S65" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T65" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="U65" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>國立西螺農工</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1251-142027</t>
+          <t>5661-B61034</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5101,22 +5101,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E66" t="n">
         <v>11</v>
       </c>
       <c r="F66" t="n">
-        <v>90.5</v>
+        <v>57</v>
       </c>
       <c r="G66" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H66" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I66" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J66" t="n">
         <v>80</v>
@@ -5125,45 +5125,45 @@
         <v>13</v>
       </c>
       <c r="L66" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N66" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O66" t="n">
-        <v>402.5</v>
+        <v>357</v>
       </c>
       <c r="P66" t="n">
-        <v>556.5</v>
+        <v>523</v>
       </c>
       <c r="Q66" t="n">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="R66" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S66" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T66" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="U66" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>國立北科附工</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1251-142015</t>
+          <t>3081-122025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -5172,55 +5172,55 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G67" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I67" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J67" t="n">
-        <v>82.5</v>
+        <v>75</v>
       </c>
       <c r="K67" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L67" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M67" t="n">
         <v>14</v>
       </c>
       <c r="N67" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O67" t="n">
-        <v>389.5</v>
+        <v>366</v>
       </c>
       <c r="P67" t="n">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="Q67" t="n">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="R67" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S67" t="n">
         <v>16</v>
       </c>
       <c r="T67" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U67" t="n">
         <v>13</v>
@@ -5229,12 +5229,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>國立臺南高工</t>
+          <t>市立臺中高工</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6771-101012</t>
+          <t>4351-102024</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5243,55 +5243,55 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G68" t="n">
         <v>14</v>
       </c>
       <c r="H68" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I68" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J68" t="n">
-        <v>82.5</v>
+        <v>70</v>
       </c>
       <c r="K68" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L68" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M68" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N68" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O68" t="n">
-        <v>399.5</v>
+        <v>369</v>
       </c>
       <c r="P68" t="n">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="Q68" t="n">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="R68" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S68" t="n">
         <v>12</v>
       </c>
       <c r="T68" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U68" t="n">
         <v>13</v>
@@ -5300,12 +5300,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>高雄市立高雄高工</t>
+          <t>市立臺中高工</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7251-ME2812</t>
+          <t>4351-102035</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -5314,28 +5314,28 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
       </c>
       <c r="F69" t="n">
-        <v>88.5</v>
+        <v>94.5</v>
       </c>
       <c r="G69" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H69" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I69" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J69" t="n">
-        <v>77.5</v>
+        <v>65</v>
       </c>
       <c r="K69" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L69" t="n">
         <v>80</v>
@@ -5344,39 +5344,39 @@
         <v>14</v>
       </c>
       <c r="N69" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O69" t="n">
-        <v>398</v>
+        <v>377.5</v>
       </c>
       <c r="P69" t="n">
-        <v>555.5</v>
+        <v>522.5</v>
       </c>
       <c r="Q69" t="n">
+        <v>166</v>
+      </c>
+      <c r="R69" t="n">
         <v>68</v>
       </c>
-      <c r="R69" t="n">
-        <v>64</v>
-      </c>
       <c r="S69" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T69" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="U69" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>國立北科附工</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4351-101005</t>
+          <t>3081-710037</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -5385,69 +5385,69 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E70" t="n">
+        <v>13</v>
+      </c>
+      <c r="F70" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="G70" t="n">
         <v>10</v>
       </c>
-      <c r="F70" t="n">
-        <v>81</v>
-      </c>
-      <c r="G70" t="n">
-        <v>13</v>
-      </c>
       <c r="H70" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I70" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J70" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L70" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N70" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O70" t="n">
-        <v>393</v>
+        <v>368.25</v>
       </c>
       <c r="P70" t="n">
-        <v>555</v>
+        <v>522.25</v>
       </c>
       <c r="Q70" t="n">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="R70" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="S70" t="n">
         <v>16</v>
       </c>
       <c r="T70" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="U70" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>高雄市立高雄高工</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4351-123026</t>
+          <t>7251-ME3801</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5456,69 +5456,69 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G71" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H71" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I71" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J71" t="n">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="K71" t="n">
         <v>14</v>
       </c>
       <c r="L71" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N71" t="n">
+        <v>60</v>
+      </c>
+      <c r="O71" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="P71" t="n">
+        <v>522</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>168</v>
+      </c>
+      <c r="R71" t="n">
+        <v>46</v>
+      </c>
+      <c r="S71" t="n">
+        <v>14</v>
+      </c>
+      <c r="T71" t="n">
         <v>66</v>
       </c>
-      <c r="O71" t="n">
-        <v>402</v>
-      </c>
-      <c r="P71" t="n">
-        <v>555</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>70</v>
-      </c>
-      <c r="R71" t="n">
-        <v>62</v>
-      </c>
-      <c r="S71" t="n">
-        <v>20</v>
-      </c>
-      <c r="T71" t="n">
-        <v>74</v>
-      </c>
       <c r="U71" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>市立霧峰農工</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1251-142014</t>
+          <t>4681-A05012</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5527,58 +5527,58 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F72" t="n">
-        <v>98.5</v>
+        <v>87</v>
       </c>
       <c r="G72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H72" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J72" t="n">
-        <v>75</v>
+        <v>72.5</v>
       </c>
       <c r="K72" t="n">
         <v>12</v>
       </c>
       <c r="L72" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="M72" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N72" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O72" t="n">
-        <v>397.5</v>
+        <v>381.5</v>
       </c>
       <c r="P72" t="n">
-        <v>554.5</v>
+        <v>522</v>
       </c>
       <c r="Q72" t="n">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="R72" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="S72" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T72" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="U72" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4351-122022</t>
+          <t>4351-123025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5598,69 +5598,69 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E73" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F73" t="n">
-        <v>97.75</v>
+        <v>91</v>
       </c>
       <c r="G73" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H73" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J73" t="n">
-        <v>70</v>
+        <v>67.5</v>
       </c>
       <c r="K73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L73" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="M73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N73" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O73" t="n">
-        <v>397.75</v>
+        <v>380.5</v>
       </c>
       <c r="P73" t="n">
-        <v>553.75</v>
+        <v>522</v>
       </c>
       <c r="Q73" t="n">
+        <v>170</v>
+      </c>
+      <c r="R73" t="n">
         <v>72</v>
       </c>
-      <c r="R73" t="n">
-        <v>70</v>
-      </c>
       <c r="S73" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="T73" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="U73" t="n">
-        <v>13.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>國立嘉義高工</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4351-102020</t>
+          <t>5941-A04011</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5669,49 +5669,49 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F74" t="n">
-        <v>94.5</v>
+        <v>93</v>
       </c>
       <c r="G74" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H74" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J74" t="n">
-        <v>82.5</v>
+        <v>70</v>
       </c>
       <c r="K74" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L74" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M74" t="n">
         <v>12</v>
       </c>
       <c r="N74" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O74" t="n">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="P74" t="n">
-        <v>553.5</v>
+        <v>521</v>
       </c>
       <c r="Q74" t="n">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="R74" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="S74" t="n">
         <v>16</v>
@@ -5720,18 +5720,18 @@
         <v>80</v>
       </c>
       <c r="U74" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>國立臺南高工</t>
+          <t>國立興大附農</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6771-193035</t>
+          <t>4361-E01021</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5740,22 +5740,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75" t="n">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I75" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J75" t="n">
         <v>85</v>
@@ -5764,45 +5764,45 @@
         <v>14</v>
       </c>
       <c r="L75" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N75" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O75" t="n">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="P75" t="n">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="Q75" t="n">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="R75" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="S75" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T75" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="U75" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>國立彰化師大附工</t>
+          <t>國立臺南高工</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5121-306016</t>
+          <t>6771-193002</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5811,58 +5811,58 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E76" t="n">
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>71</v>
+        <v>96.5</v>
       </c>
       <c r="G76" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H76" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J76" t="n">
-        <v>82.5</v>
+        <v>77.5</v>
       </c>
       <c r="K76" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L76" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="M76" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N76" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O76" t="n">
-        <v>385.5</v>
+        <v>380</v>
       </c>
       <c r="P76" t="n">
-        <v>552</v>
+        <v>519.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="R76" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S76" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T76" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="U76" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="77">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3531-B02037</t>
+          <t>3531-B02012</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5882,69 +5882,69 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E77" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G77" t="n">
         <v>14</v>
       </c>
       <c r="H77" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I77" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J77" t="n">
-        <v>72.5</v>
+        <v>77.5</v>
       </c>
       <c r="K77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L77" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M77" t="n">
         <v>13</v>
       </c>
       <c r="N77" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O77" t="n">
-        <v>405.5</v>
+        <v>365.5</v>
       </c>
       <c r="P77" t="n">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="Q77" t="n">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="R77" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="S77" t="n">
+        <v>20</v>
+      </c>
+      <c r="T77" t="n">
+        <v>72</v>
+      </c>
+      <c r="U77" t="n">
         <v>16</v>
-      </c>
-      <c r="T77" t="n">
-        <v>78</v>
-      </c>
-      <c r="U77" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>國立臺南高工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6771-193028</t>
+          <t>3531-B02010</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5953,16 +5953,16 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>75</v>
+        <v>61.5</v>
       </c>
       <c r="G78" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H78" t="n">
         <v>76</v>
@@ -5971,10 +5971,10 @@
         <v>12</v>
       </c>
       <c r="J78" t="n">
-        <v>85</v>
+        <v>77.5</v>
       </c>
       <c r="K78" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L78" t="n">
         <v>82</v>
@@ -5983,39 +5983,39 @@
         <v>14</v>
       </c>
       <c r="N78" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O78" t="n">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="P78" t="n">
-        <v>551</v>
+        <v>518.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="R78" t="n">
         <v>46</v>
       </c>
       <c r="S78" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T78" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="U78" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>高雄市立高雄高工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7251-ME1824</t>
+          <t>3531-B01037</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6024,69 +6024,69 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F79" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="I79" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J79" t="n">
-        <v>82.5</v>
+        <v>72.5</v>
       </c>
       <c r="K79" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L79" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="M79" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N79" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O79" t="n">
-        <v>389.5</v>
+        <v>379.5</v>
       </c>
       <c r="P79" t="n">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="Q79" t="n">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="R79" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="S79" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T79" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U79" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>市立臺中高工</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1251-142011</t>
+          <t>4351-122028</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6095,22 +6095,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>77.5</v>
+        <v>63.5</v>
       </c>
       <c r="G80" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H80" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I80" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J80" t="n">
         <v>80</v>
@@ -6119,31 +6119,31 @@
         <v>13</v>
       </c>
       <c r="L80" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M80" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N80" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O80" t="n">
-        <v>387.5</v>
+        <v>359.5</v>
       </c>
       <c r="P80" t="n">
-        <v>549.5</v>
+        <v>517.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="R80" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S80" t="n">
         <v>16</v>
       </c>
       <c r="T80" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="U80" t="n">
         <v>9.5</v>
@@ -6152,12 +6152,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>國立臺南高工</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3531-D01014</t>
+          <t>6771-193004</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -6166,69 +6166,69 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F81" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G81" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H81" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J81" t="n">
-        <v>82.5</v>
+        <v>80</v>
       </c>
       <c r="K81" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L81" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N81" t="n">
+        <v>60</v>
+      </c>
+      <c r="O81" t="n">
+        <v>369</v>
+      </c>
+      <c r="P81" t="n">
+        <v>517</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>178</v>
+      </c>
+      <c r="R81" t="n">
         <v>64</v>
       </c>
-      <c r="O81" t="n">
-        <v>392.5</v>
-      </c>
-      <c r="P81" t="n">
-        <v>549</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>80</v>
-      </c>
-      <c r="R81" t="n">
-        <v>58</v>
-      </c>
       <c r="S81" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T81" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="U81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>國立嘉義高工</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4351-102009</t>
+          <t>5941-A05033</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6237,69 +6237,69 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F82" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G82" t="n">
         <v>14</v>
       </c>
       <c r="H82" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I82" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J82" t="n">
-        <v>72.5</v>
+        <v>75</v>
       </c>
       <c r="K82" t="n">
         <v>12</v>
       </c>
       <c r="L82" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N82" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O82" t="n">
-        <v>397.5</v>
+        <v>372</v>
       </c>
       <c r="P82" t="n">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="Q82" t="n">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="R82" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="S82" t="n">
         <v>16</v>
       </c>
       <c r="T82" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U82" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>臺北市立大安高工</t>
+          <t>國立彰化師大附工</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1251-142001</t>
+          <t>5121-306010</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6308,69 +6308,69 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F83" t="n">
-        <v>69.75</v>
+        <v>67.5</v>
       </c>
       <c r="G83" t="n">
         <v>11</v>
       </c>
       <c r="H83" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I83" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J83" t="n">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="K83" t="n">
         <v>14</v>
       </c>
       <c r="L83" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N83" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O83" t="n">
-        <v>392.75</v>
+        <v>360</v>
       </c>
       <c r="P83" t="n">
-        <v>547.75</v>
+        <v>516.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="R83" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S83" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T83" t="n">
         <v>58</v>
       </c>
       <c r="U83" t="n">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3531-B02036</t>
+          <t>1251-141022</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6379,69 +6379,69 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>76.5</v>
+        <v>84.5</v>
       </c>
       <c r="G84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H84" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I84" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J84" t="n">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="K84" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L84" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M84" t="n">
         <v>13</v>
       </c>
       <c r="N84" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O84" t="n">
-        <v>386</v>
+        <v>365.5</v>
       </c>
       <c r="P84" t="n">
-        <v>547.5</v>
+        <v>516.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="R84" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="S84" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T84" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U84" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>市立臺中高工</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3531-B02014</t>
+          <t>4351-102012</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -6450,69 +6450,69 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="n">
-        <v>85.75</v>
+        <v>73.5</v>
       </c>
       <c r="G85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H85" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I85" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J85" t="n">
-        <v>77.5</v>
+        <v>72.5</v>
       </c>
       <c r="K85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L85" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="M85" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N85" t="n">
         <v>62</v>
       </c>
       <c r="O85" t="n">
-        <v>383.25</v>
+        <v>376</v>
       </c>
       <c r="P85" t="n">
-        <v>546.75</v>
+        <v>516.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="R85" t="n">
         <v>58</v>
       </c>
       <c r="S85" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T85" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="U85" t="n">
-        <v>13.75</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>國立新竹高工</t>
+          <t>市立臺中高工</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3531-B01002</t>
+          <t>4351-101026</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6521,16 +6521,16 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E86" t="n">
         <v>12</v>
       </c>
       <c r="F86" t="n">
-        <v>92.5</v>
+        <v>76.25</v>
       </c>
       <c r="G86" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H86" t="n">
         <v>64</v>
@@ -6539,51 +6539,51 @@
         <v>10</v>
       </c>
       <c r="J86" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K86" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L86" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N86" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O86" t="n">
-        <v>389.5</v>
+        <v>365.25</v>
       </c>
       <c r="P86" t="n">
-        <v>546.5</v>
+        <v>516.25</v>
       </c>
       <c r="Q86" t="n">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="R86" t="n">
+        <v>58</v>
+      </c>
+      <c r="S86" t="n">
+        <v>16</v>
+      </c>
+      <c r="T86" t="n">
         <v>64</v>
       </c>
-      <c r="S86" t="n">
-        <v>12</v>
-      </c>
-      <c r="T86" t="n">
-        <v>78</v>
-      </c>
       <c r="U86" t="n">
-        <v>14.5</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>國立臺南高工</t>
+          <t>國立新竹高工</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>6771-101026</t>
+          <t>3531-B02005</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -6592,69 +6592,69 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E87" t="n">
         <v>11</v>
       </c>
       <c r="F87" t="n">
-        <v>83.5</v>
+        <v>73</v>
       </c>
       <c r="G87" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H87" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I87" t="n">
         <v>13</v>
       </c>
       <c r="J87" t="n">
-        <v>77.5</v>
+        <v>72.5</v>
       </c>
       <c r="K87" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L87" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M87" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N87" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O87" t="n">
-        <v>389</v>
+        <v>371.5</v>
       </c>
       <c r="P87" t="n">
-        <v>546.5</v>
+        <v>516</v>
       </c>
       <c r="Q87" t="n">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="R87" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S87" t="n">
         <v>16</v>
       </c>
       <c r="T87" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="U87" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>市立臺中高工</t>
+          <t>臺北市立木柵高工_x0003_</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4351-101011</t>
+          <t>1271-863014</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6663,16 +6663,16 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E88" t="n">
         <v>11</v>
       </c>
       <c r="F88" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G88" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H88" t="n">
         <v>72</v>
@@ -6681,51 +6681,51 @@
         <v>11</v>
       </c>
       <c r="J88" t="n">
-        <v>87.5</v>
+        <v>70</v>
       </c>
       <c r="K88" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L88" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N88" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O88" t="n">
-        <v>390.5</v>
+        <v>370</v>
       </c>
       <c r="P88" t="n">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="Q88" t="n">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="R88" t="n">
         <v>52</v>
       </c>
       <c r="S88" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T88" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U88" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>國立彰化師大附工</t>
+          <t>臺北市立大安高工</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5121-304009</t>
+          <t>1251-101019</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6734,57 +6734,909 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J89" t="n">
-        <v>82.5</v>
+        <v>67.5</v>
       </c>
       <c r="K89" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L89" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M89" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N89" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O89" t="n">
-        <v>379.5</v>
+        <v>372.5</v>
       </c>
       <c r="P89" t="n">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="Q89" t="n">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="R89" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="S89" t="n">
         <v>16</v>
       </c>
       <c r="T89" t="n">
+        <v>72</v>
+      </c>
+      <c r="U89" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>臺北市立松山工農</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1281-052019</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>67</v>
+      </c>
+      <c r="E90" t="n">
+        <v>11</v>
+      </c>
+      <c r="F90" t="n">
+        <v>58</v>
+      </c>
+      <c r="G90" t="n">
+        <v>9</v>
+      </c>
+      <c r="H90" t="n">
+        <v>68</v>
+      </c>
+      <c r="I90" t="n">
+        <v>11</v>
+      </c>
+      <c r="J90" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>14</v>
+      </c>
+      <c r="L90" t="n">
+        <v>78</v>
+      </c>
+      <c r="M90" t="n">
+        <v>13</v>
+      </c>
+      <c r="N90" t="n">
+        <v>58</v>
+      </c>
+      <c r="O90" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="P90" t="n">
+        <v>515</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>187</v>
+      </c>
+      <c r="R90" t="n">
+        <v>52</v>
+      </c>
+      <c r="S90" t="n">
+        <v>16</v>
+      </c>
+      <c r="T90" t="n">
+        <v>48</v>
+      </c>
+      <c r="U90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>國立臺南高工</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>6771-103024</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>63</v>
+      </c>
+      <c r="E91" t="n">
+        <v>10</v>
+      </c>
+      <c r="F91" t="n">
+        <v>91</v>
+      </c>
+      <c r="G91" t="n">
+        <v>14</v>
+      </c>
+      <c r="H91" t="n">
+        <v>56</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9</v>
+      </c>
+      <c r="J91" t="n">
+        <v>80</v>
+      </c>
+      <c r="K91" t="n">
+        <v>13</v>
+      </c>
+      <c r="L91" t="n">
+        <v>72</v>
+      </c>
+      <c r="M91" t="n">
+        <v>12</v>
+      </c>
+      <c r="N91" t="n">
+        <v>58</v>
+      </c>
+      <c r="O91" t="n">
+        <v>363</v>
+      </c>
+      <c r="P91" t="n">
+        <v>515</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>188</v>
+      </c>
+      <c r="R91" t="n">
+        <v>48</v>
+      </c>
+      <c r="S91" t="n">
+        <v>16</v>
+      </c>
+      <c r="T91" t="n">
+        <v>78</v>
+      </c>
+      <c r="U91" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>國立嘉義高工</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>5941-A17013</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>65</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10</v>
+      </c>
+      <c r="F92" t="n">
+        <v>89</v>
+      </c>
+      <c r="G92" t="n">
+        <v>14</v>
+      </c>
+      <c r="H92" t="n">
+        <v>64</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>80</v>
+      </c>
+      <c r="K92" t="n">
+        <v>13</v>
+      </c>
+      <c r="L92" t="n">
+        <v>68</v>
+      </c>
+      <c r="M92" t="n">
+        <v>12</v>
+      </c>
+      <c r="N92" t="n">
+        <v>59</v>
+      </c>
+      <c r="O92" t="n">
+        <v>367</v>
+      </c>
+      <c r="P92" t="n">
+        <v>515</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>189</v>
+      </c>
+      <c r="R92" t="n">
+        <v>50</v>
+      </c>
+      <c r="S92" t="n">
+        <v>16</v>
+      </c>
+      <c r="T92" t="n">
+        <v>76</v>
+      </c>
+      <c r="U92" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>國立新竹高工</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>3531-B02033</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>65</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10</v>
+      </c>
+      <c r="F93" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>11</v>
+      </c>
+      <c r="H93" t="n">
+        <v>72</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11</v>
+      </c>
+      <c r="J93" t="n">
+        <v>80</v>
+      </c>
+      <c r="K93" t="n">
+        <v>13</v>
+      </c>
+      <c r="L93" t="n">
+        <v>74</v>
+      </c>
+      <c r="M93" t="n">
+        <v>13</v>
+      </c>
+      <c r="N93" t="n">
+        <v>58</v>
+      </c>
+      <c r="O93" t="n">
+        <v>360.5</v>
+      </c>
+      <c r="P93" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>190</v>
+      </c>
+      <c r="R93" t="n">
+        <v>54</v>
+      </c>
+      <c r="S93" t="n">
+        <v>12</v>
+      </c>
+      <c r="T93" t="n">
+        <v>56</v>
+      </c>
+      <c r="U93" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>國立彰化師大附工</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>5121-301013</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>74</v>
+      </c>
+      <c r="E94" t="n">
+        <v>12</v>
+      </c>
+      <c r="F94" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>12</v>
+      </c>
+      <c r="H94" t="n">
+        <v>72</v>
+      </c>
+      <c r="I94" t="n">
+        <v>11</v>
+      </c>
+      <c r="J94" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>11</v>
+      </c>
+      <c r="L94" t="n">
+        <v>78</v>
+      </c>
+      <c r="M94" t="n">
+        <v>13</v>
+      </c>
+      <c r="N94" t="n">
+        <v>59</v>
+      </c>
+      <c r="O94" t="n">
+        <v>369</v>
+      </c>
+      <c r="P94" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>191</v>
+      </c>
+      <c r="R94" t="n">
+        <v>58</v>
+      </c>
+      <c r="S94" t="n">
+        <v>16</v>
+      </c>
+      <c r="T94" t="n">
+        <v>68</v>
+      </c>
+      <c r="U94" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>國立新竹高工</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>3531-B02018</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>67</v>
+      </c>
+      <c r="E95" t="n">
+        <v>11</v>
+      </c>
+      <c r="F95" t="n">
+        <v>79</v>
+      </c>
+      <c r="G95" t="n">
+        <v>12</v>
+      </c>
+      <c r="H95" t="n">
+        <v>68</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>13</v>
+      </c>
+      <c r="L95" t="n">
+        <v>72</v>
+      </c>
+      <c r="M95" t="n">
+        <v>12</v>
+      </c>
+      <c r="N95" t="n">
+        <v>59</v>
+      </c>
+      <c r="O95" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="P95" t="n">
+        <v>514</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>192</v>
+      </c>
+      <c r="R95" t="n">
+        <v>52</v>
+      </c>
+      <c r="S95" t="n">
+        <v>16</v>
+      </c>
+      <c r="T95" t="n">
+        <v>68</v>
+      </c>
+      <c r="U95" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>國立新竹高工</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3531-B02021</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>69</v>
+      </c>
+      <c r="E96" t="n">
+        <v>11</v>
+      </c>
+      <c r="F96" t="n">
+        <v>83</v>
+      </c>
+      <c r="G96" t="n">
+        <v>13</v>
+      </c>
+      <c r="H96" t="n">
+        <v>68</v>
+      </c>
+      <c r="I96" t="n">
+        <v>11</v>
+      </c>
+      <c r="J96" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>12</v>
+      </c>
+      <c r="L96" t="n">
+        <v>74</v>
+      </c>
+      <c r="M96" t="n">
+        <v>13</v>
+      </c>
+      <c r="N96" t="n">
+        <v>60</v>
+      </c>
+      <c r="O96" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="P96" t="n">
+        <v>514</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>193</v>
+      </c>
+      <c r="R96" t="n">
+        <v>54</v>
+      </c>
+      <c r="S96" t="n">
+        <v>16</v>
+      </c>
+      <c r="T96" t="n">
+        <v>72</v>
+      </c>
+      <c r="U96" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>市立臺中高工</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>4351-102011</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>65</v>
+      </c>
+      <c r="E97" t="n">
+        <v>10</v>
+      </c>
+      <c r="F97" t="n">
+        <v>51</v>
+      </c>
+      <c r="G97" t="n">
+        <v>8</v>
+      </c>
+      <c r="H97" t="n">
+        <v>96</v>
+      </c>
+      <c r="I97" t="n">
+        <v>15</v>
+      </c>
+      <c r="J97" t="n">
+        <v>80</v>
+      </c>
+      <c r="K97" t="n">
+        <v>13</v>
+      </c>
+      <c r="L97" t="n">
+        <v>70</v>
+      </c>
+      <c r="M97" t="n">
+        <v>12</v>
+      </c>
+      <c r="N97" t="n">
+        <v>58</v>
+      </c>
+      <c r="O97" t="n">
+        <v>363</v>
+      </c>
+      <c r="P97" t="n">
+        <v>513</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>194</v>
+      </c>
+      <c r="R97" t="n">
+        <v>50</v>
+      </c>
+      <c r="S97" t="n">
+        <v>16</v>
+      </c>
+      <c r="T97" t="n">
+        <v>42</v>
+      </c>
+      <c r="U97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>臺北市立大安高工</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1251-101037</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>73</v>
+      </c>
+      <c r="E98" t="n">
+        <v>12</v>
+      </c>
+      <c r="F98" t="n">
+        <v>81</v>
+      </c>
+      <c r="G98" t="n">
+        <v>13</v>
+      </c>
+      <c r="H98" t="n">
+        <v>60</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10</v>
+      </c>
+      <c r="J98" t="n">
+        <v>75</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12</v>
+      </c>
+      <c r="L98" t="n">
+        <v>74</v>
+      </c>
+      <c r="M98" t="n">
+        <v>13</v>
+      </c>
+      <c r="N98" t="n">
+        <v>60</v>
+      </c>
+      <c r="O98" t="n">
+        <v>364</v>
+      </c>
+      <c r="P98" t="n">
+        <v>513</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>195</v>
+      </c>
+      <c r="R98" t="n">
+        <v>56</v>
+      </c>
+      <c r="S98" t="n">
+        <v>18</v>
+      </c>
+      <c r="T98" t="n">
+        <v>68</v>
+      </c>
+      <c r="U98" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>國立新竹高工</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>3531-B02030</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>79</v>
+      </c>
+      <c r="E99" t="n">
+        <v>12</v>
+      </c>
+      <c r="F99" t="n">
+        <v>87</v>
+      </c>
+      <c r="G99" t="n">
+        <v>14</v>
+      </c>
+      <c r="H99" t="n">
+        <v>64</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10</v>
+      </c>
+      <c r="J99" t="n">
+        <v>70</v>
+      </c>
+      <c r="K99" t="n">
+        <v>12</v>
+      </c>
+      <c r="L99" t="n">
+        <v>72</v>
+      </c>
+      <c r="M99" t="n">
+        <v>12</v>
+      </c>
+      <c r="N99" t="n">
+        <v>60</v>
+      </c>
+      <c r="O99" t="n">
+        <v>371</v>
+      </c>
+      <c r="P99" t="n">
+        <v>513</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>196</v>
+      </c>
+      <c r="R99" t="n">
         <v>66</v>
       </c>
-      <c r="U89" t="n">
+      <c r="S99" t="n">
+        <v>12</v>
+      </c>
+      <c r="T99" t="n">
+        <v>76</v>
+      </c>
+      <c r="U99" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>市立臺中高工</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>4351-122021</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>77</v>
+      </c>
+      <c r="E100" t="n">
+        <v>12</v>
+      </c>
+      <c r="F100" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="G100" t="n">
+        <v>15</v>
+      </c>
+      <c r="H100" t="n">
+        <v>56</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>70</v>
+      </c>
+      <c r="K100" t="n">
+        <v>12</v>
+      </c>
+      <c r="L100" t="n">
+        <v>72</v>
+      </c>
+      <c r="M100" t="n">
+        <v>12</v>
+      </c>
+      <c r="N100" t="n">
+        <v>60</v>
+      </c>
+      <c r="O100" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="P100" t="n">
+        <v>512.5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>197</v>
+      </c>
+      <c r="R100" t="n">
+        <v>58</v>
+      </c>
+      <c r="S100" t="n">
+        <v>18</v>
+      </c>
+      <c r="T100" t="n">
+        <v>82</v>
+      </c>
+      <c r="U100" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>臺北市立松山工農</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1281-052018</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>01機械群</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>73</v>
+      </c>
+      <c r="E101" t="n">
+        <v>12</v>
+      </c>
+      <c r="F101" t="n">
+        <v>87</v>
+      </c>
+      <c r="G101" t="n">
+        <v>14</v>
+      </c>
+      <c r="H101" t="n">
+        <v>44</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>13</v>
+      </c>
+      <c r="L101" t="n">
+        <v>76</v>
+      </c>
+      <c r="M101" t="n">
+        <v>13</v>
+      </c>
+      <c r="N101" t="n">
+        <v>59</v>
+      </c>
+      <c r="O101" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="P101" t="n">
+        <v>512</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>198</v>
+      </c>
+      <c r="R101" t="n">
+        <v>58</v>
+      </c>
+      <c r="S101" t="n">
+        <v>16</v>
+      </c>
+      <c r="T101" t="n">
+        <v>74</v>
+      </c>
+      <c r="U101" t="n">
         <v>13</v>
       </c>
     </row>

--- a/app/static/upload/excel_hide/excel_TM/new_excel_TM.xlsx
+++ b/app/static/upload/excel_hide/excel_TM/new_excel_TM.xlsx
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" t="n">
         <v>12</v>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E101" t="n">
         <v>12</v>
